--- a/biology/Botanique/Thesium/Thesium.xlsx
+++ b/biology/Botanique/Thesium/Thesium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Thesium regroupe 245 espèces largement représentées dans les régions tempérées de l'Ancien Monde, particulièrement nombreuses en Afrique du Sud, quelques espèces se trouvent en Amérique du Sud tropicale et tempérée ; 16 espèces (dont 9 endémiques) en Chine.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Thesium acuminatum A.W. Hill
 Thesium acutissimum A. DC.
 Thesium aellenianum Lawalrée
